--- a/biology/Zoologie/Capensibufo_deceptus/Capensibufo_deceptus.xlsx
+++ b/biology/Zoologie/Capensibufo_deceptus/Capensibufo_deceptus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Capensibufo deceptus est une espèce d'amphibiens de la famille des Bufonidae[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Capensibufo deceptus est une espèce d'amphibiens de la famille des Bufonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Cap-Occidental en Afrique du Sud[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Cap-Occidental en Afrique du Sud.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Nom vernaculaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Capensibufo deceptus a pour nom vernaculaire anglais Deception Peak Mountain Toadlet[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Capensibufo deceptus a pour nom vernaculaire anglais Deception Peak Mountain Toadlet.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, deceptus, ainsi que son nom vernaculaire anglais font référence à sa localité type située sur le Deception Peak[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, deceptus, ainsi que son nom vernaculaire anglais font référence à sa localité type située sur le Deception Peak.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) A. Channing, G. J. Measey, A. L. De Villiers, Andrew A. Turner et K. A. Tolley, « Taxonomy of the Capensibufo rosei group (Anura: Bufonidae) from South Africa », Zootaxa, Magnolia Press (d), vol. 4232, no 2,‎ 15 février 2017, p. 282–292 (ISSN 1175-5334 et 1175-5326, OCLC 49030618, PMID 28264398, DOI 10.11646/ZOOTAXA.4232.2.11, lire en ligne)</t>
         </is>
